--- a/Final.xlsx
+++ b/Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DJP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{39872974-B4C0-4ACC-851E-2A264DF5FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AF2882D0-9FCC-4446-9908-C03633B8380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -664,2765 +664,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sum</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Payments for Each Month</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:area3DChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Final!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Amount_of_Payments</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Final!$B$2:$B$49</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Final!$D$2:$D$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>66912.909999999902</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77029.769999999902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77125.119999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100050.319999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>94994.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84294.599999999904</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32875.799999999901</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59299.040000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68805.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>69293.72</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33674.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>532469.82999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>417661.89999999898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>417105.56</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>469242.73</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>486275.44</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>936722.37</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>106753.75999999901</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>536142.74999999895</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>522989.00999999902</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>552287.16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>670639.27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>116823.49</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>149071.769999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>127430.239999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>141915.34999999899</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>144259.97</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>146754.54999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>212334.99</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>129393.35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>182954.86999999901</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>113046.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>147343.29999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>131442.01</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>602374.25999999896</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>683145.47</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>595114.93999999994</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>438757.4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>803721.35</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>650130.76999999897</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>757748.6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>764361.40999999898</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>602621.31999999995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>509636.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>894522.73</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>723540.81</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>498173.50999999902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FFE-4093-8B1C-EA7785E49291}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="660445656"/>
-        <c:axId val="660449264"/>
-        <c:axId val="0"/>
-      </c:area3DChart>
-      <c:dateAx>
-        <c:axId val="660445656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="660449264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="660449264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="660445656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
-              <a:t>Count of New &amp; Open Employers by EOM</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Final!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>New_Employers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Final!$B$2:$B$49</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Final!$E$2:$E$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1758</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>592</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2DD2-4D56-96B0-B908674AA41C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Final!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Open_Employers_at_EOM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Final!$B$2:$B$49</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43131</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43159</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43220</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43251</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43312</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43373</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43434</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Final!$F$2:$F$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>603</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>613</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>635</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>648</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>669</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>677</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>692</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>699</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2DD2-4D56-96B0-B908674AA41C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="662742424"/>
-        <c:axId val="662742752"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="662742424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="662742752"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="662742752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="662742424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="280">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D75443F-49A7-496F-8546-98A647A7092A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8112D80D-5F47-4CC1-9DC1-837BBBEB2AF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5565,7 +2806,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6560,9 +3801,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
